--- a/Country_Data/Checklist.xlsx
+++ b/Country_Data/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AE1366-AE36-44E0-BC12-2CD8B6D7C894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0E36D1-198E-4F01-A049-DE4FF9A3BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3435" yWindow="7560" windowWidth="7500" windowHeight="6000" xr2:uid="{4CBAF6B3-7A52-46C1-B6EB-6BA8034EEE4E}"/>
+    <workbookView xWindow="24960" yWindow="8670" windowWidth="7500" windowHeight="6000" xr2:uid="{4CBAF6B3-7A52-46C1-B6EB-6BA8034EEE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Austria</t>
   </si>
@@ -66,9 +66,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>? (link broken)</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -109,19 +106,54 @@
   </si>
   <si>
     <t>Greece</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,14 +173,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2DBC0D8E-56F1-44B3-A70D-AA55583B99B1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B84D1F-8B3A-41B4-BADD-7112550A3DA1}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,12 +573,12 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -551,7 +586,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -559,7 +594,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -567,7 +602,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -575,7 +610,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -583,7 +618,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -591,7 +626,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -599,7 +634,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -607,7 +642,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -615,12 +650,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -628,7 +666,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -636,7 +674,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -644,7 +682,82 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
